--- a/app.xlsx
+++ b/app.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roy\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D63810-B7EA-4FCE-9028-F01BA43B944B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DCE4B07-1C79-4D2C-90EB-10C5479E203C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D1CA0502-75B1-4A3E-8B33-4A5071E2F6D2}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,31 +59,6 @@
     <t>appDesc</t>
   </si>
   <si>
-    <t>V1.8.3</t>
-  </si>
-  <si>
-    <t>23.0MB</t>
-  </si>
-  <si>
-    <t>com.tencent.weread.eink</t>
-  </si>
-  <si>
-    <t>微信读书</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://bookbk.img.ireader.com/some.ico</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hello</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wwww</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>categoryId</t>
   </si>
   <si>
@@ -93,35 +68,84 @@
     <t>explain</t>
   </si>
   <si>
-    <t>http:234</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fffff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sddddd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dddww</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name14</t>
+    <t>阅读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V3.22.022719</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>io.legado.app.release</t>
+  </si>
+  <si>
+    <t>14.0MB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pp.myapp.com/ma_icon/0/icon_11377690_1643184492/96</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.amazon.kindlefc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kindle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V8.50.0.100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://ebook.zhangyue.com/apps/legado_app_3.22.022719.zip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://ebook.zhangyue.com/apps/com.amazon.kindlefc_8.50.0.100(1.3.255094.0-kfc)_1221066852.zip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>52.9MB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.seazon.feedme</t>
+  </si>
+  <si>
+    <t>FeedMe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V3.20.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://ebook.zhangyue.com/apps/FeedMe-app-release-3.20.5.zip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.9MB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快捷方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.x7890.shortcutcreator</t>
+  </si>
+  <si>
+    <t>V1.17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://ebook.zhangyue.com/apps/ShortcutCreator_1.17.zip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.9MB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -489,15 +513,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F48D14D7-3EB6-4103-9239-90573633A6E2}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="15.77734375" customWidth="1"/>
+    <col min="1" max="2" width="15.77734375" customWidth="1"/>
+    <col min="3" max="3" width="38.88671875" customWidth="1"/>
+    <col min="4" max="6" width="15.77734375" customWidth="1"/>
     <col min="7" max="7" width="35.44140625" customWidth="1"/>
     <col min="8" max="9" width="15.77734375" customWidth="1"/>
   </cols>
@@ -519,19 +545,19 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="I1" t="s">
         <v>6</v>
       </c>
       <c r="J1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -541,23 +567,21 @@
       <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -565,25 +589,25 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -591,25 +615,23 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C4" s="1"/>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -617,51 +639,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="F5">
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6">
-        <v>212</v>
-      </c>
-      <c r="E6">
-        <v>23213</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
